--- a/results_antpool_f2pool.xlsx
+++ b/results_antpool_f2pool.xlsx
@@ -90,39 +90,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$A$1:$A$10</c:f>
+              <c:f>antpool!$D$1:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2665</c:v>
+                  <c:v>0.2735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.07102225</c:v>
+                  <c:v>0.07480225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.018927429625</c:v>
+                  <c:v>0.020458415375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0050441599950625</c:v>
+                  <c:v>0.0055953766050625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00134426863868415</c:v>
+                  <c:v>0.00153033550148459</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000358247592209327</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>9.54729833237858E-5</c:v>
+                  <c:v>0.000418546759656036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000114472538765926</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>2.54435500557889E-5</c:v>
+                  <c:v>3.13082393524807E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>6.78070608986775E-6</c:v>
+                  <c:v>8.56280346290349E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.80705817294975E-6</c:v>
+                  <c:v>2.3419267471041E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -134,24 +134,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$B$1:$B$10</c:f>
+              <c:f>antpool!$E$1:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.142</c:v>
+                  <c:v>0.135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0340170085042521</c:v>
+                  <c:v>0.0430215107553776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.011011011011011</c:v>
+                  <c:v>0.0105105105105105</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.00400600901352028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00150300601202404</c:v>
+                  <c:v>0.00100200400801603</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -182,11 +182,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1773418776"/>
-        <c:axId val="1773421688"/>
+        <c:axId val="2115184504"/>
+        <c:axId val="2117581480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1773418776"/>
+        <c:axId val="2115184504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -195,7 +195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773421688"/>
+        <c:crossAx val="2117581480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -203,7 +203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1773421688"/>
+        <c:axId val="2117581480"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -215,7 +215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773418776"/>
+        <c:crossAx val="2115184504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -250,7 +250,6 @@
       <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -265,39 +264,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$AB$1:$AB$10</c:f>
+              <c:f>f2pool!$A$1:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2205</c:v>
+                  <c:v>0.2215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04862025</c:v>
+                  <c:v>0.04906225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.010720765125</c:v>
+                  <c:v>0.010867288375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0023639287100625</c:v>
+                  <c:v>0.00240710437506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000521246280568781</c:v>
+                  <c:v>0.000533173619076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000114934804865416</c:v>
+                  <c:v>0.000118097956625</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.53431244728242E-5</c:v>
+                  <c:v>2.61586973925E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>5.58815894625775E-6</c:v>
+                  <c:v>5.79415147245E-6</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.23218904764983E-6</c:v>
+                  <c:v>1.28340455115E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.71697685006788E-7</c:v>
+                  <c:v>2.84274108079E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,24 +308,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$AC$1:$AC$10</c:f>
+              <c:f>f2pool!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1325</c:v>
+                  <c:v>0.1265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0315157578789394</c:v>
+                  <c:v>0.0310155077539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0065065065065065</c:v>
+                  <c:v>0.00950950950951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0015022533800701</c:v>
+                  <c:v>0.00050075112669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000501002004008</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -357,11 +356,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2052649032"/>
-        <c:axId val="1974969336"/>
+        <c:axId val="2119455896"/>
+        <c:axId val="2119458808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2052649032"/>
+        <c:axId val="2119455896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1974969336"/>
+        <c:crossAx val="2119458808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -378,7 +377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1974969336"/>
+        <c:axId val="2119458808"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -390,7 +389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052649032"/>
+        <c:crossAx val="2119455896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -439,39 +438,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$AE$1:$AE$10</c:f>
+              <c:f>f2pool!$D$1:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2106</c:v>
+                  <c:v>0.237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0555225260932751</c:v>
+                  <c:v>0.056169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0130828940794499</c:v>
+                  <c:v>0.013312053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00308275090377842</c:v>
+                  <c:v>0.003154956561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000726395327901812</c:v>
+                  <c:v>0.000747724704957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000171162117494105</c:v>
+                  <c:v>0.000177210755075</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.03313035474615E-5</c:v>
+                  <c:v>4.19989489527E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>9.50335313474669E-6</c:v>
+                  <c:v>9.9537509018E-6</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.23929585358973E-6</c:v>
+                  <c:v>2.35903896373E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.27650172397582E-7</c:v>
+                  <c:v>5.59092234403E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,24 +482,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$AF$1:$AF$10</c:f>
+              <c:f>f2pool!$E$1:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.145768025078369</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0324098274960794</c:v>
+                  <c:v>0.0355177588794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00679916317991631</c:v>
+                  <c:v>0.00800800800801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000523286237571951</c:v>
+                  <c:v>0.00150225338007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000523560209424083</c:v>
+                  <c:v>0.000501002004008</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -531,11 +530,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2054333352"/>
-        <c:axId val="1972036136"/>
+        <c:axId val="2115700104"/>
+        <c:axId val="2117679720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2054333352"/>
+        <c:axId val="2115700104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1972036136"/>
+        <c:crossAx val="2117679720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -552,7 +551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1972036136"/>
+        <c:axId val="2117679720"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -564,7 +563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054333352"/>
+        <c:crossAx val="2115700104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -598,6 +597,7 @@
       <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -612,39 +612,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$A$1:$A$10</c:f>
+              <c:f>f2pool!$G$1:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2215</c:v>
+                  <c:v>0.233</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04906225</c:v>
+                  <c:v>0.054289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.010867288375</c:v>
+                  <c:v>0.012649337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00240710437506</c:v>
+                  <c:v>0.002947295521</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000533173619076</c:v>
+                  <c:v>0.000686719856393</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000118097956625</c:v>
+                  <c:v>0.00016000572654</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.61586973925E-5</c:v>
+                  <c:v>3.72813342837E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>5.79415147245E-6</c:v>
+                  <c:v>8.68655088811E-6</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.28340455115E-6</c:v>
+                  <c:v>2.02396635693E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.84274108079E-7</c:v>
+                  <c:v>4.71584161164E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,21 +656,21 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$B$1:$B$10</c:f>
+              <c:f>f2pool!$H$1:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1265</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0310155077539</c:v>
+                  <c:v>0.0335167583792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00950950950951</c:v>
+                  <c:v>0.00650650650651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00050075112669</c:v>
+                  <c:v>0.00100150225338</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.000501002004008</c:v>
@@ -704,11 +704,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1972200792"/>
-        <c:axId val="2052507624"/>
+        <c:axId val="2103767080"/>
+        <c:axId val="2100421576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1972200792"/>
+        <c:axId val="2103767080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052507624"/>
+        <c:crossAx val="2100421576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -725,7 +725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2052507624"/>
+        <c:axId val="2100421576"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -737,14 +737,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1972200792"/>
+        <c:crossAx val="2103767080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -787,39 +786,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$D$1:$D$10</c:f>
+              <c:f>f2pool!$J$1:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.237</c:v>
+                  <c:v>0.2535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.056169</c:v>
+                  <c:v>0.06426225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.013312053</c:v>
+                  <c:v>0.016290480375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.003154956561</c:v>
+                  <c:v>0.00412963677506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000747724704957</c:v>
+                  <c:v>0.00104686292248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000177210755075</c:v>
+                  <c:v>0.000265379750848</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.19989489527E-5</c:v>
+                  <c:v>6.727376684E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>9.9537509018E-6</c:v>
+                  <c:v>1.70538998939E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.35903896373E-6</c:v>
+                  <c:v>4.32316362312E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.59092234403E-7</c:v>
+                  <c:v>1.09592197846E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,18 +830,18 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$E$1:$E$10</c:f>
+              <c:f>f2pool!$K$1:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1335</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0355177588794</c:v>
+                  <c:v>0.0345172586293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00800800800801</c:v>
+                  <c:v>0.012012012012</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.00150225338007</c:v>
@@ -879,11 +878,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2056502744"/>
-        <c:axId val="2056335400"/>
+        <c:axId val="2100414472"/>
+        <c:axId val="2110070024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2056502744"/>
+        <c:axId val="2100414472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056335400"/>
+        <c:crossAx val="2110070024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -900,7 +899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2056335400"/>
+        <c:axId val="2110070024"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -912,14 +911,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056502744"/>
+        <c:crossAx val="2100414472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -962,39 +960,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$G$1:$G$10</c:f>
+              <c:f>f2pool!$M$1:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.233</c:v>
+                  <c:v>0.236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.054289</c:v>
+                  <c:v>0.055696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.012649337</c:v>
+                  <c:v>0.013144256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.002947295521</c:v>
+                  <c:v>0.003102044416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000686719856393</c:v>
+                  <c:v>0.000732082482176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00016000572654</c:v>
+                  <c:v>0.000172771465794</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>3.72813342837E-5</c:v>
+                  <c:v>4.07740659273E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>8.68655088811E-6</c:v>
+                  <c:v>9.62267955884E-6</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.02396635693E-6</c:v>
+                  <c:v>2.27095237589E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>4.71584161164E-7</c:v>
+                  <c:v>5.35944760709E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,24 +1004,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$H$1:$H$10</c:f>
+              <c:f>f2pool!$N$1:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14</c:v>
+                  <c:v>0.134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0335167583792</c:v>
+                  <c:v>0.0295147573787</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00650650650651</c:v>
+                  <c:v>0.0125125125125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00100150225338</c:v>
+                  <c:v>0.00150225338007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000501002004008</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -1054,11 +1052,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1773949848"/>
-        <c:axId val="1773952888"/>
+        <c:axId val="2122096168"/>
+        <c:axId val="2122099144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1773949848"/>
+        <c:axId val="2122096168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773952888"/>
+        <c:crossAx val="2122099144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +1073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1773952888"/>
+        <c:axId val="2122099144"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1087,14 +1085,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773949848"/>
+        <c:crossAx val="2122096168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1137,39 +1134,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$J$1:$J$10</c:f>
+              <c:f>f2pool!$P$1:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2535</c:v>
+                  <c:v>0.251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06426225</c:v>
+                  <c:v>0.063001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.016290480375</c:v>
+                  <c:v>0.015813251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00412963677506</c:v>
+                  <c:v>0.003969126001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00104686292248</c:v>
+                  <c:v>0.000996250626251</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000265379750848</c:v>
+                  <c:v>0.000250058907189</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>6.727376684E-5</c:v>
+                  <c:v>6.27647857044E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.70538998939E-5</c:v>
+                  <c:v>1.57539612118E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>4.32316362312E-6</c:v>
+                  <c:v>3.95424426417E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.09592197846E-6</c:v>
+                  <c:v>9.92515310306E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,27 +1178,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$K$1:$K$10</c:f>
+              <c:f>f2pool!$Q$1:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14</c:v>
+                  <c:v>0.137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0345172586293</c:v>
+                  <c:v>0.0425212606303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.012012012012</c:v>
+                  <c:v>0.00700700700701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00150225338007</c:v>
+                  <c:v>0.00050075112669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000501002004008</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00100250626566</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
@@ -1229,11 +1226,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2054369976"/>
-        <c:axId val="2054379640"/>
+        <c:axId val="2122134232"/>
+        <c:axId val="2122137208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2054369976"/>
+        <c:axId val="2122134232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054379640"/>
+        <c:crossAx val="2122137208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1250,7 +1247,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2054379640"/>
+        <c:axId val="2122137208"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1262,14 +1259,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054369976"/>
+        <c:crossAx val="2122134232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1312,39 +1308,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$M$1:$M$10</c:f>
+              <c:f>f2pool!$S$1:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.236</c:v>
+                  <c:v>0.227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.055696</c:v>
+                  <c:v>0.051529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.013144256</c:v>
+                  <c:v>0.011697083</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.003102044416</c:v>
+                  <c:v>0.002655237841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000732082482176</c:v>
+                  <c:v>0.000602738989907</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000172771465794</c:v>
+                  <c:v>0.000136821750709</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.07740659273E-5</c:v>
+                  <c:v>3.10585374109E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>9.62267955884E-6</c:v>
+                  <c:v>7.05028799228E-6</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.27095237589E-6</c:v>
+                  <c:v>1.60041537425E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.35944760709E-7</c:v>
+                  <c:v>3.63294289954E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,18 +1352,18 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$N$1:$N$10</c:f>
+              <c:f>f2pool!$T$1:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.134</c:v>
+                  <c:v>0.1465</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0295147573787</c:v>
+                  <c:v>0.0275137568784</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0125125125125</c:v>
+                  <c:v>0.00650650650651</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.00150225338007</c:v>
@@ -1404,11 +1400,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1973092920"/>
-        <c:axId val="1972712920"/>
+        <c:axId val="2122172392"/>
+        <c:axId val="2122175368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1973092920"/>
+        <c:axId val="2122172392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1972712920"/>
+        <c:crossAx val="2122175368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1425,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1972712920"/>
+        <c:axId val="2122175368"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1437,14 +1433,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1973092920"/>
+        <c:crossAx val="2122172392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1487,39 +1482,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$P$1:$P$10</c:f>
+              <c:f>f2pool!$V$1:$V$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.251</c:v>
+                  <c:v>0.2275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.063001</c:v>
+                  <c:v>0.05175625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.015813251</c:v>
+                  <c:v>0.011774546875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.003969126001</c:v>
+                  <c:v>0.00267870941406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000996250626251</c:v>
+                  <c:v>0.000609406391699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000250058907189</c:v>
+                  <c:v>0.000138639954112</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>6.27647857044E-5</c:v>
+                  <c:v>3.15405895604E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.57539612118E-5</c:v>
+                  <c:v>7.17548412499E-6</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>3.95424426417E-6</c:v>
+                  <c:v>1.63242263843E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>9.92515310306E-7</c:v>
+                  <c:v>3.71376150244E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,27 +1526,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$Q$1:$Q$10</c:f>
+              <c:f>f2pool!$W$1:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.137</c:v>
+                  <c:v>0.1305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0425212606303</c:v>
+                  <c:v>0.0330165082541</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.00700700700701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00050075112669</c:v>
+                  <c:v>0.00200300450676</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.000501002004008</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.00100250626566</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
@@ -1579,11 +1574,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1972514792"/>
-        <c:axId val="1975096728"/>
+        <c:axId val="2122210184"/>
+        <c:axId val="2122213160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1972514792"/>
+        <c:axId val="2122210184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1975096728"/>
+        <c:crossAx val="2122213160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,7 +1595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1975096728"/>
+        <c:axId val="2122213160"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1612,14 +1607,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1972514792"/>
+        <c:crossAx val="2122210184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1662,39 +1656,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$S$1:$S$10</c:f>
+              <c:f>f2pool!$Y$1:$Y$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.227</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.051529</c:v>
+                  <c:v>0.0576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.011697083</c:v>
+                  <c:v>0.013824</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.002655237841</c:v>
+                  <c:v>0.00331776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000602738989907</c:v>
+                  <c:v>0.0007962624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000136821750709</c:v>
+                  <c:v>0.000191102976</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>3.10585374109E-5</c:v>
+                  <c:v>4.586471424E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>7.05028799228E-6</c:v>
+                  <c:v>1.10075314176E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.60041537425E-6</c:v>
+                  <c:v>2.64180754022E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>3.63294289954E-7</c:v>
+                  <c:v>6.34033809654E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,24 +1700,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>f2pool!$T$1:$T$10</c:f>
+              <c:f>f2pool!$Z$1:$Z$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1465</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0275137568784</c:v>
+                  <c:v>0.0325162581291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00650650650651</c:v>
+                  <c:v>0.00750750750751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00150225338007</c:v>
+                  <c:v>0.00250375563345</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000501002004008</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -1754,11 +1748,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1975271432"/>
-        <c:axId val="1975442648"/>
+        <c:axId val="2119439960"/>
+        <c:axId val="2119442936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1975271432"/>
+        <c:axId val="2119439960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1975442648"/>
+        <c:crossAx val="2119442936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1775,7 +1769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1975442648"/>
+        <c:axId val="2119442936"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1787,189 +1781,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1975271432"/>
+        <c:crossAx val="2119439960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>f2pool!$V$1:$V$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.2275</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05175625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.011774546875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00267870941406</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.000609406391699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.000138639954112</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>3.15405895604E-5</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>7.17548412499E-6</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.63242263843E-6</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>3.71376150244E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>f2pool!$W$1:$W$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1305</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0330165082541</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00700700700701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00200300450676</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.000501002004008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1975144184"/>
-        <c:axId val="1975147160"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1975144184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1975147160"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1975147160"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1975144184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2012,39 +1830,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$D$1:$D$10</c:f>
+              <c:f>antpool!$J$1:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2735</c:v>
+                  <c:v>0.2355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.07480225</c:v>
+                  <c:v>0.0554602499999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.020458415375</c:v>
+                  <c:v>0.0130608888749999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0055953766050625</c:v>
+                  <c:v>0.00307583933006249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00153033550148459</c:v>
+                  <c:v>0.000724360162229718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000418546759656036</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.000114472538765926</c:v>
+                  <c:v>0.000170586818205098</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>4.01731956873007E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>3.13082393524807E-5</c:v>
+                  <c:v>9.46078758435932E-6</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>8.56280346290349E-6</c:v>
+                  <c:v>2.22801547611662E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.3419267471041E-6</c:v>
+                  <c:v>5.24697644625464E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,24 +1874,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$E$1:$E$10</c:f>
+              <c:f>antpool!$K$1:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.135</c:v>
+                  <c:v>0.129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0430215107553776</c:v>
+                  <c:v>0.0385192596298149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0105105105105105</c:v>
+                  <c:v>0.007007007007007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00400600901352028</c:v>
+                  <c:v>0.0015022533800701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00100200400801603</c:v>
+                  <c:v>0.000501002004008016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -2104,11 +1922,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1773993352"/>
-        <c:axId val="1773157480"/>
+        <c:axId val="2121987800"/>
+        <c:axId val="2121972600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1773993352"/>
+        <c:axId val="2121987800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,7 +1935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773157480"/>
+        <c:crossAx val="2121972600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2125,7 +1943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1773157480"/>
+        <c:axId val="2121972600"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2137,182 +1955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773993352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>f2pool!$Y$1:$Y$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0576</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.013824</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00331776</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0007962624</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.000191102976</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.586471424E-5</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.10075314176E-5</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.64180754022E-6</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>6.34033809654E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>f2pool!$Z$1:$Z$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0325162581291</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00750750750751</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00250375563345</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.000501002004008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1773399864"/>
-        <c:axId val="1773402840"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1773399864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773402840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1773402840"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773399864"/>
+        <c:crossAx val="2121987800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2362,39 +2005,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$G$1:$G$10</c:f>
+              <c:f>antpool!$M$1:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2735</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.07480225</c:v>
+                  <c:v>0.0576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.020458415375</c:v>
+                  <c:v>0.0138239999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0055953766050625</c:v>
+                  <c:v>0.00331775999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00153033550148459</c:v>
+                  <c:v>0.000796262399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000418546759656036</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.000114472538765926</c:v>
+                  <c:v>0.000191102975999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>4.58647142399999E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>3.13082393524807E-5</c:v>
+                  <c:v>1.10075314175999E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>8.56280346290349E-6</c:v>
+                  <c:v>2.64180754022399E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.3419267471041E-6</c:v>
+                  <c:v>6.34033809653759E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2406,30 +2049,30 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$H$1:$H$10</c:f>
+              <c:f>antpool!$N$1:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>0.1495</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0310155077538769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.012012012012012</c:v>
+                  <c:v>0.006006006006006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00300450676014021</c:v>
+                  <c:v>0.00200300450676014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00150300601202404</c:v>
+                  <c:v>0.000501002004008016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00050125313283208</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000501504513540621</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -2454,11 +2097,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1774007720"/>
-        <c:axId val="1774010632"/>
+        <c:axId val="2121955672"/>
+        <c:axId val="2121958584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1774007720"/>
+        <c:axId val="2121955672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +2110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1774010632"/>
+        <c:crossAx val="2121958584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2475,7 +2118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1774010632"/>
+        <c:axId val="2121958584"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2487,7 +2130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1774007720"/>
+        <c:crossAx val="2121955672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2537,39 +2180,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$J$1:$J$10</c:f>
+              <c:f>antpool!$P$1:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2355</c:v>
+                  <c:v>0.2165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0554602499999999</c:v>
+                  <c:v>0.04687225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0130608888749999</c:v>
+                  <c:v>0.0101478421249999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00307583933006249</c:v>
+                  <c:v>0.0021970078200625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000724360162229718</c:v>
+                  <c:v>0.000475652193043531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000170586818205098</c:v>
+                  <c:v>0.000102978699793924</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.01731956873007E-5</c:v>
+                  <c:v>2.22948885053846E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>9.46078758435932E-6</c:v>
+                  <c:v>4.82684336141577E-6</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.22801547611662E-6</c:v>
+                  <c:v>1.04501158774651E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.24697644625464E-7</c:v>
+                  <c:v>2.2624500874712E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,24 +2224,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$K$1:$K$10</c:f>
+              <c:f>antpool!$Q$1:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.129</c:v>
+                  <c:v>0.1275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0385192596298149</c:v>
+                  <c:v>0.0340170085042521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.007007007007007</c:v>
+                  <c:v>0.005005005005005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0015022533800701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000501002004008016</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -2629,11 +2272,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1773185048"/>
-        <c:axId val="1773999720"/>
+        <c:axId val="2103788264"/>
+        <c:axId val="2104228712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1773185048"/>
+        <c:axId val="2103788264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773999720"/>
+        <c:crossAx val="2104228712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2650,7 +2293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1773999720"/>
+        <c:axId val="2104228712"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2662,7 +2305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773185048"/>
+        <c:crossAx val="2103788264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2712,39 +2355,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$M$1:$M$10</c:f>
+              <c:f>antpool!$S$1:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24</c:v>
+                  <c:v>0.2425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0576</c:v>
+                  <c:v>0.05880625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0138239999999999</c:v>
+                  <c:v>0.014260515625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00331775999999999</c:v>
+                  <c:v>0.00345817503906249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000796262399999999</c:v>
+                  <c:v>0.000838607446972656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000191102975999999</c:v>
+                  <c:v>0.000203362305890869</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.58647142399999E-5</c:v>
+                  <c:v>4.93153591785357E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.10075314175999E-5</c:v>
+                  <c:v>1.19589746007949E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.64180754022399E-6</c:v>
+                  <c:v>2.90005134069276E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>6.34033809653759E-7</c:v>
+                  <c:v>7.03262450117996E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,24 +2399,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$N$1:$N$10</c:f>
+              <c:f>antpool!$T$1:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1495</c:v>
+                  <c:v>0.1365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0310155077538769</c:v>
+                  <c:v>0.0360180090045022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.006006006006006</c:v>
+                  <c:v>0.01001001001001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00200300450676014</c:v>
+                  <c:v>0.00100150225338007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000501002004008016</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -2804,11 +2447,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1773644904"/>
-        <c:axId val="1773626200"/>
+        <c:axId val="2122062568"/>
+        <c:axId val="2122065480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1773644904"/>
+        <c:axId val="2122062568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2817,7 +2460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773626200"/>
+        <c:crossAx val="2122065480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2825,7 +2468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1773626200"/>
+        <c:axId val="2122065480"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2837,7 +2480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773644904"/>
+        <c:crossAx val="2122062568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2887,39 +2530,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$P$1:$P$10</c:f>
+              <c:f>antpool!$V$1:$V$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2165</c:v>
+                  <c:v>0.2745</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04687225</c:v>
+                  <c:v>0.07535025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0101478421249999</c:v>
+                  <c:v>0.020683643625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0021970078200625</c:v>
+                  <c:v>0.0056776601750625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000475652193043531</c:v>
+                  <c:v>0.00155851771805465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000102978699793924</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.22948885053846E-5</c:v>
+                  <c:v>0.000427813113606003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000117434699684847</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>4.82684336141577E-6</c:v>
+                  <c:v>3.22358250634907E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.04501158774651E-6</c:v>
+                  <c:v>8.84873397992821E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.2624500874712E-7</c:v>
+                  <c:v>2.42897747749029E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2931,24 +2574,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$Q$1:$Q$10</c:f>
+              <c:f>antpool!$W$1:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1275</c:v>
+                  <c:v>0.158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0340170085042521</c:v>
+                  <c:v>0.0315157578789394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.005005005005005</c:v>
+                  <c:v>0.012012012012012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0015022533800701</c:v>
+                  <c:v>0.00250375563345017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00150300601202404</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -2979,11 +2622,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1773165928"/>
-        <c:axId val="1773168840"/>
+        <c:axId val="2115481144"/>
+        <c:axId val="2117505864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1773165928"/>
+        <c:axId val="2115481144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,7 +2635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773168840"/>
+        <c:crossAx val="2117505864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3000,7 +2643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1773168840"/>
+        <c:axId val="2117505864"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3012,7 +2655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773165928"/>
+        <c:crossAx val="2115481144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3062,39 +2705,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$S$1:$S$10</c:f>
+              <c:f>antpool!$Y$1:$Y$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2425</c:v>
+                  <c:v>0.252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05880625</c:v>
+                  <c:v>0.063504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.014260515625</c:v>
+                  <c:v>0.016003008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00345817503906249</c:v>
+                  <c:v>0.004032758016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000838607446972656</c:v>
+                  <c:v>0.001016255020032</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000203362305890869</c:v>
+                  <c:v>0.000256096265048064</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.93153591785357E-5</c:v>
+                  <c:v>6.45362587921121E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.19589746007949E-5</c:v>
+                  <c:v>1.62631372156122E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.90005134069276E-6</c:v>
+                  <c:v>4.09831057833428E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>7.03262450117996E-7</c:v>
+                  <c:v>1.03277426574024E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,21 +2749,21 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$T$1:$T$10</c:f>
+              <c:f>antpool!$Z$1:$Z$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1365</c:v>
+                  <c:v>0.1495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0360180090045022</c:v>
+                  <c:v>0.032016008004002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01001001001001</c:v>
+                  <c:v>0.009009009009009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00100150225338007</c:v>
+                  <c:v>0.00200300450676014</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
@@ -3129,7 +2772,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000501504513540621</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -3154,11 +2797,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1973117704"/>
-        <c:axId val="2052614040"/>
+        <c:axId val="2120200696"/>
+        <c:axId val="2115574024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1973117704"/>
+        <c:axId val="2120200696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +2810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052614040"/>
+        <c:crossAx val="2115574024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3175,7 +2818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2052614040"/>
+        <c:axId val="2115574024"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3187,7 +2830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1973117704"/>
+        <c:crossAx val="2120200696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3222,14 +2865,13 @@
       <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3237,39 +2879,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$V$1:$V$10</c:f>
+              <c:f>antpool!$G$1:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2745</c:v>
+                  <c:v>0.2735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.07535025</c:v>
+                  <c:v>0.07480225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.020683643625</c:v>
+                  <c:v>0.020458415375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0056776601750625</c:v>
+                  <c:v>0.0055953766050625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00155851771805465</c:v>
+                  <c:v>0.00153033550148459</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000427813113606003</c:v>
+                  <c:v>0.000418546759656036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000117434699684847</c:v>
+                  <c:v>0.000114472538765926</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>3.22358250634907E-5</c:v>
+                  <c:v>3.13082393524807E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>8.84873397992821E-6</c:v>
+                  <c:v>8.56280346290349E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.42897747749029E-6</c:v>
+                  <c:v>2.3419267471041E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3281,30 +2923,30 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>antpool!$W$1:$W$10</c:f>
+              <c:f>antpool!$H$1:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.158</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0315157578789394</c:v>
+                  <c:v>0.0310155077538769</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.012012012012012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00250375563345017</c:v>
+                  <c:v>0.00300450676014021</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.00150300601202404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00050125313283208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000501504513540621</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -3328,12 +2970,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1972648376"/>
-        <c:axId val="1972497816"/>
+        <c:axId val="2125902120"/>
+        <c:axId val="2104976936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1972648376"/>
+        <c:axId val="2125902120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3342,15 +2983,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1972497816"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="2104976936"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1972497816"/>
+        <c:axId val="2104976936"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3362,13 +3003,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1972648376"/>
+        <c:crossAx val="2125902120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3403,7 +3045,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3502,12 +3144,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1971846984"/>
-        <c:axId val="1971551480"/>
+        <c:axId val="2112321512"/>
+        <c:axId val="2114744456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1971846984"/>
+        <c:axId val="2112321512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,15 +3157,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1971551480"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="2114744456"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1971551480"/>
+        <c:axId val="2114744456"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3536,13 +3177,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1971846984"/>
+        <c:crossAx val="2112321512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3559,36 +3201,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3613,37 +3225,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3673,7 +3255,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3703,7 +3285,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3733,7 +3315,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3763,7 +3345,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3793,7 +3375,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3823,7 +3405,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3831,20 +3413,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3853,7 +3435,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3861,20 +3443,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3883,7 +3465,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6703,837 +6285,6 @@
 </a:themeOverride>
 </file>
 
-<file path=xl/theme/themeOverride17.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="100000"/>
-              <a:shade val="100000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:shade val="100000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
-<file path=xl/theme/themeOverride18.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="100000"/>
-              <a:shade val="100000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:shade val="100000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
-<file path=xl/theme/themeOverride19.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="100000"/>
-              <a:shade val="100000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:shade val="100000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Office">
@@ -9754,8 +8505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
